--- a/samples/smfGetYahooPortfolioView-Example all elements.xlsx
+++ b/samples/smfGetYahooPortfolioView-Example all elements.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>SPHD</t>
   </si>
@@ -51,13 +51,16 @@
   <si>
     <t>XOM240621C00115000</t>
   </si>
+  <si>
+    <t>MSFT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -159,7 +162,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,7 +492,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="AX4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AC1" sqref="AC1:AC65536"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,52 +1429,52 @@
         <v>Nasdaq Real Time Price</v>
       </c>
       <c r="Q4" s="10">
-        <v>151.88</v>
+        <v>149.85</v>
       </c>
       <c r="R4" s="1">
-        <v>1675970352</v>
+        <v>1676051159</v>
       </c>
       <c r="S4" s="13">
-        <v>-3.9993286000000003E-2</v>
+        <v>-0.78999330000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>153.77500000000001</v>
+        <v>149.46</v>
       </c>
       <c r="U4" s="1">
-        <v>154.33000000000001</v>
+        <v>151.34</v>
       </c>
       <c r="V4" s="1">
-        <v>151.87</v>
+        <v>149.22</v>
       </c>
       <c r="W4" s="1">
-        <v>33508543</v>
+        <v>26127433</v>
       </c>
       <c r="X4" s="1">
-        <v>152.11000000000001</v>
+        <v>149.75</v>
       </c>
       <c r="Y4" s="1">
-        <v>152.09</v>
+        <v>149.77000000000001</v>
       </c>
       <c r="Z4" s="1">
         <v>15821899776</v>
       </c>
       <c r="AA4" s="1">
-        <v>2403030269952</v>
+        <v>2370911862784</v>
       </c>
       <c r="AB4" s="1">
-        <v>77873885</v>
+        <v>76843554</v>
       </c>
       <c r="AC4" s="1">
-        <v>169.17</v>
+        <v>169.15</v>
       </c>
       <c r="AD4" s="1">
         <v>387537011000</v>
       </c>
       <c r="AE4" s="1">
-        <v>6.2007760000000003</v>
+        <v>6.1178980000000003</v>
       </c>
       <c r="AF4" s="1">
-        <v>25.786079999999998</v>
+        <v>25.441427000000001</v>
       </c>
       <c r="AG4" s="1">
         <v>5.89</v>
@@ -1492,7 +1495,7 @@
         <v>0.92</v>
       </c>
       <c r="AM4" s="1">
-        <v>5.9899949999999997E-3</v>
+        <v>6.0408926000000002E-3</v>
       </c>
       <c r="AN4" s="1">
         <v>0.91</v>
@@ -1501,19 +1504,19 @@
         <v>1675375200</v>
       </c>
       <c r="AP4" s="1">
-        <v>42.412734999999998</v>
+        <v>41.845849999999999</v>
       </c>
       <c r="AQ4" s="1">
         <v>3.581</v>
       </c>
       <c r="AR4" s="1">
-        <v>6.61</v>
+        <v>6.59</v>
       </c>
       <c r="AS4" s="1">
-        <v>3.12</v>
+        <v>3.1</v>
       </c>
       <c r="AT4" s="1">
-        <v>22.977308000000001</v>
+        <v>22.738997999999999</v>
       </c>
       <c r="AU4" s="1">
         <v>125287997440</v>
@@ -1528,43 +1531,43 @@
         <v>USD</v>
       </c>
       <c r="AY4" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ4" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA4" s="1">
-        <v>151.91999999999999</v>
+        <v>150.63999999999999</v>
       </c>
       <c r="BB4" s="1">
-        <v>-2.6325228000000003E-4</v>
+        <v>-5.2442469999999996E-3</v>
       </c>
       <c r="BC4" s="1" t="str">
-        <v>151.87 - 154.33</v>
+        <v>149.22 - 151.34</v>
       </c>
       <c r="BD4" s="1">
-        <v>82198920</v>
+        <v>82388790</v>
       </c>
       <c r="BE4" s="1">
         <v>0</v>
       </c>
       <c r="BF4" s="1">
-        <v>139.0692</v>
+        <v>139.2022</v>
       </c>
       <c r="BG4" s="1">
-        <v>12.810805999999999</v>
+        <v>10.647812</v>
       </c>
       <c r="BH4" s="1">
-        <v>9.2118210000000006E-2</v>
+        <v>7.6491699999999996E-2</v>
       </c>
       <c r="BI4" s="1">
-        <v>147.61604</v>
+        <v>147.55600000000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>4.2639620000000003</v>
+        <v>2.2940062999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>2.8885490999999999E-2</v>
+        <v>1.5546683E-2</v>
       </c>
       <c r="BL4" s="1" t="str">
         <v>124.17 - 179.61</v>
@@ -1573,19 +1576,19 @@
         <v>124.17</v>
       </c>
       <c r="BN4" s="1">
-        <v>27.710007000000001</v>
+        <v>25.680008000000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>0.22316184999999999</v>
+        <v>0.20681330000000001</v>
       </c>
       <c r="BP4" s="1">
         <v>179.61</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-27.729996</v>
+        <v>-29.759995</v>
       </c>
       <c r="BR4" s="1">
-        <v>-0.15439004000000001</v>
+        <v>-0.16569229999999999</v>
       </c>
       <c r="BS4" s="1" t="str">
         <v>--</v>
@@ -1600,25 +1603,25 @@
         <v>--</v>
       </c>
       <c r="BW4" s="1">
-        <v>1675952998</v>
+        <v>1676039398</v>
       </c>
       <c r="BX4" s="1">
-        <v>153.76</v>
+        <v>149.34</v>
       </c>
       <c r="BY4" s="1">
-        <v>1.84</v>
+        <v>-1.3</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1.21116E-2</v>
+        <v>-8.6298699999999996E-3</v>
       </c>
       <c r="CA4" s="1" t="str">
         <v>false</v>
       </c>
       <c r="CB4" s="1">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="CC4" s="1">
-        <v>0.59666666666666668</v>
+        <v>0.5319328703666667</v>
       </c>
       <c r="CD4" s="1">
         <v>44967</v>
@@ -1636,19 +1639,19 @@
         <v>--</v>
       </c>
       <c r="CI4" s="1">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="CJ4" s="1">
         <v>0.39581018516666672</v>
       </c>
       <c r="CK4" s="1">
-        <v>44966.596666666672</v>
+        <v>44967.531932870363</v>
       </c>
       <c r="CL4" s="1" t="str">
         <v>--</v>
       </c>
       <c r="CM4" s="1">
-        <v>44966.395810185168</v>
+        <v>44967.395810185168</v>
       </c>
       <c r="CN4" s="1">
         <v>45042</v>
@@ -1682,210 +1685,212 @@
       </c>
     </row>
     <row r="5" spans="2:130" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="4" t="str">
-        <v>--</v>
+        <v>MSFT</v>
       </c>
       <c r="D5" s="10" t="str">
-        <v>--</v>
+        <v>Microsoft Corporation</v>
       </c>
       <c r="E5" s="10" t="str">
-        <v>--</v>
+        <v>Microsoft Corporation</v>
       </c>
       <c r="F5" s="11" t="str">
-        <v>--</v>
+        <v>NMS</v>
       </c>
       <c r="G5" s="10" t="str">
-        <v>--</v>
+        <v>NasdaqGS</v>
       </c>
       <c r="H5" s="10" t="str">
-        <v>--</v>
+        <v>us_market</v>
       </c>
       <c r="I5" s="10" t="str">
-        <v>--</v>
-      </c>
-      <c r="J5" s="11" t="str">
-        <v>--</v>
+        <v>REGULAR</v>
+      </c>
+      <c r="J5" s="11">
+        <v>15</v>
       </c>
       <c r="K5" s="10" t="str">
-        <v>--</v>
+        <v>America/New_York</v>
       </c>
       <c r="L5" s="4" t="str">
-        <v>--</v>
-      </c>
-      <c r="M5" s="10" t="str">
-        <v>--</v>
+        <v>EST</v>
+      </c>
+      <c r="M5" s="10">
+        <v>-18000000</v>
       </c>
       <c r="N5" s="10" t="str">
-        <v>--</v>
+        <v>en-US</v>
       </c>
       <c r="O5" s="10" t="str">
-        <v>--</v>
+        <v>EQUITY</v>
       </c>
       <c r="P5" s="12" t="str">
-        <v>--</v>
-      </c>
-      <c r="Q5" s="10" t="str">
-        <v>--</v>
-      </c>
-      <c r="R5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="S5" s="13" t="str">
-        <v>--</v>
-      </c>
-      <c r="T5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="U5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="V5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="W5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="X5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="Y5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="Z5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="AA5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="AB5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="AC5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="AD5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="AE5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="AF5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="AG5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="AH5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="AI5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="AJ5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="AK5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="AL5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="AM5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="AN5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="AO5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="AP5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="AQ5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="AR5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="AS5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="AT5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="AU5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="AV5" s="1" t="str">
-        <v>--</v>
+        <v>Nasdaq Real Time Price</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>261.065</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1676051158</v>
+      </c>
+      <c r="S5" s="13">
+        <v>-2.5549927000000001</v>
+      </c>
+      <c r="T5" s="1">
+        <v>261.52999999999997</v>
+      </c>
+      <c r="U5" s="1">
+        <v>264.08999999999997</v>
+      </c>
+      <c r="V5" s="1">
+        <v>260.67</v>
+      </c>
+      <c r="W5" s="1">
+        <v>13070403</v>
+      </c>
+      <c r="X5" s="1">
+        <v>261.13</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>261.16000000000003</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>7443800064</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>1943315677184</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>30574844</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>284.73</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>204093997000</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>9.5216700000000003</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>29.007223</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>9</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>1676419200</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>1678320000</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>2.72</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>9.8626809999999999E-3</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>1674599400</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>10.615850999999999</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>24.591999999999999</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>10.73</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>2.39</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>24.330383000000001</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>97945001984</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>1.1499999999999999</v>
       </c>
       <c r="AW5" s="1" t="str">
         <v>--</v>
       </c>
       <c r="AX5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="AY5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="AZ5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="BA5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="BB5" s="1" t="str">
-        <v>--</v>
+        <v>USD</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>9</v>
+      </c>
+      <c r="AZ5" s="1">
+        <v>9</v>
+      </c>
+      <c r="BA5" s="1">
+        <v>263.62</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>-9.6919529999999997E-3</v>
       </c>
       <c r="BC5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="BD5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="BE5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="BF5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="BG5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="BH5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="BI5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="BJ5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="BK5" s="1" t="str">
-        <v>--</v>
+        <v>260.67 - 264.09</v>
+      </c>
+      <c r="BD5" s="1">
+        <v>34948940</v>
+      </c>
+      <c r="BE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="1">
+        <v>244.5992</v>
+      </c>
+      <c r="BG5" s="1">
+        <v>16.465805</v>
+      </c>
+      <c r="BH5" s="1">
+        <v>6.7317489999999994E-2</v>
+      </c>
+      <c r="BI5" s="1">
+        <v>253.82816</v>
+      </c>
+      <c r="BJ5" s="1">
+        <v>7.236847</v>
+      </c>
+      <c r="BK5" s="1">
+        <v>2.8510812999999999E-2</v>
       </c>
       <c r="BL5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="BM5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="BN5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="BO5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="BP5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="BQ5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="BR5" s="1" t="str">
-        <v>--</v>
+        <v>213.43 - 315.95</v>
+      </c>
+      <c r="BM5" s="1">
+        <v>213.43</v>
+      </c>
+      <c r="BN5" s="1">
+        <v>47.635010000000001</v>
+      </c>
+      <c r="BO5" s="1">
+        <v>0.22318798000000001</v>
+      </c>
+      <c r="BP5" s="1">
+        <v>315.95</v>
+      </c>
+      <c r="BQ5" s="1">
+        <v>-54.885010000000001</v>
+      </c>
+      <c r="BR5" s="1">
+        <v>-0.17371422</v>
       </c>
       <c r="BS5" s="1" t="str">
         <v>--</v>
@@ -1899,35 +1904,35 @@
       <c r="BV5" s="1" t="str">
         <v>--</v>
       </c>
-      <c r="BW5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="BX5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="BY5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="BZ5" s="1" t="str">
-        <v>--</v>
+      <c r="BW5" s="1">
+        <v>1676039398</v>
+      </c>
+      <c r="BX5" s="1">
+        <v>261.56</v>
+      </c>
+      <c r="BY5" s="1">
+        <v>-2.06</v>
+      </c>
+      <c r="BZ5" s="1">
+        <v>-7.8142699999999999E-3</v>
       </c>
       <c r="CA5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="CB5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="CC5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="CD5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="CE5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="CF5" s="1" t="str">
-        <v>--</v>
+        <v>false</v>
+      </c>
+      <c r="CB5" s="1">
+        <v>44967</v>
+      </c>
+      <c r="CC5" s="1">
+        <v>0.53192129626666673</v>
+      </c>
+      <c r="CD5" s="1">
+        <v>44972</v>
+      </c>
+      <c r="CE5" s="1">
+        <v>44994</v>
+      </c>
+      <c r="CF5" s="1">
+        <v>44950</v>
       </c>
       <c r="CG5" s="1" t="str">
         <v>--</v>
@@ -1935,26 +1940,26 @@
       <c r="CH5" s="1" t="str">
         <v>--</v>
       </c>
-      <c r="CI5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="CJ5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="CK5" s="1" t="str">
-        <v>--</v>
+      <c r="CI5" s="1">
+        <v>44967</v>
+      </c>
+      <c r="CJ5" s="1">
+        <v>0.39581018516666672</v>
+      </c>
+      <c r="CK5" s="1">
+        <v>44967.531921296264</v>
       </c>
       <c r="CL5" s="1" t="str">
         <v>--</v>
       </c>
-      <c r="CM5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="CN5" s="1" t="str">
-        <v>--</v>
-      </c>
-      <c r="CO5" s="1" t="str">
-        <v>--</v>
+      <c r="CM5" s="1">
+        <v>44967.395810185168</v>
+      </c>
+      <c r="CN5" s="1">
+        <v>45040</v>
+      </c>
+      <c r="CO5" s="1">
+        <v>45044</v>
       </c>
       <c r="CP5" s="1" t="str">
         <v>--</v>
@@ -2028,40 +2033,40 @@
         <v>Nasdaq Real Time Price</v>
       </c>
       <c r="Q6" s="10">
-        <v>90.46</v>
+        <v>91.77</v>
       </c>
       <c r="R6" s="1">
-        <v>1675970306</v>
+        <v>1676051151</v>
       </c>
       <c r="S6" s="13">
-        <v>-1.3099976</v>
+        <v>1.5799942</v>
       </c>
       <c r="T6" s="1">
-        <v>92.91</v>
+        <v>90.47</v>
       </c>
       <c r="U6" s="1">
-        <v>92.314999999999998</v>
+        <v>92.1</v>
       </c>
       <c r="V6" s="1">
-        <v>90.42</v>
+        <v>90.342699999999994</v>
       </c>
       <c r="W6" s="1">
-        <v>529984</v>
+        <v>477196</v>
       </c>
       <c r="X6" s="1">
-        <v>90.54</v>
+        <v>91.84</v>
       </c>
       <c r="Y6" s="1">
-        <v>90.55</v>
+        <v>91.88</v>
       </c>
       <c r="Z6" s="1">
         <v>354863008</v>
       </c>
       <c r="AA6" s="1">
-        <v>32100907008</v>
+        <v>32565776384</v>
       </c>
       <c r="AB6" s="1">
-        <v>1702695</v>
+        <v>1699044</v>
       </c>
       <c r="AC6" s="1">
         <v>90.21</v>
@@ -2070,10 +2075,10 @@
         <v>15054000100</v>
       </c>
       <c r="AE6" s="1">
-        <v>2.1323837999999999</v>
+        <v>2.1632639999999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>19.04421</v>
+        <v>19.32</v>
       </c>
       <c r="AG6" s="1">
         <v>4.75</v>
@@ -2085,7 +2090,7 @@
         <v>3.15</v>
       </c>
       <c r="AJ6" s="1">
-        <v>3.5299999999999998E-2</v>
+        <v>3.5900000000000001E-2</v>
       </c>
       <c r="AK6" s="1">
         <v>1678838400</v>
@@ -2094,7 +2099,7 @@
         <v>3.24</v>
       </c>
       <c r="AM6" s="1">
-        <v>3.4270460000000003E-2</v>
+        <v>3.4870826000000001E-2</v>
       </c>
       <c r="AN6" s="1">
         <v>3.145</v>
@@ -2103,7 +2108,7 @@
         <v>1676581200</v>
       </c>
       <c r="AP6" s="1">
-        <v>1.5477799000000001</v>
+        <v>1.5701940999999999</v>
       </c>
       <c r="AQ6" s="1">
         <v>58.445</v>
@@ -2112,16 +2117,16 @@
         <v>4.82</v>
       </c>
       <c r="AS6" s="1">
-        <v>2.94</v>
+        <v>2.89</v>
       </c>
       <c r="AT6" s="1">
-        <v>18.767633</v>
+        <v>19.039417</v>
       </c>
       <c r="AU6" s="1">
         <v>4746999808</v>
       </c>
       <c r="AV6" s="1">
-        <v>4.17</v>
+        <v>3.84</v>
       </c>
       <c r="AW6" s="1" t="str">
         <v>--</v>
@@ -2136,37 +2141,37 @@
         <v>9</v>
       </c>
       <c r="BA6" s="1">
-        <v>91.77</v>
+        <v>90.19</v>
       </c>
       <c r="BB6" s="1">
-        <v>-1.4274791E-2</v>
+        <v>1.7518506999999999E-2</v>
       </c>
       <c r="BC6" s="1" t="str">
-        <v>90.42 - 92.315</v>
+        <v>90.3427 - 92.1</v>
       </c>
       <c r="BD6" s="1">
-        <v>1614530</v>
+        <v>1635840</v>
       </c>
       <c r="BE6" s="1">
         <v>0</v>
       </c>
       <c r="BF6" s="1">
-        <v>95.8596</v>
+        <v>95.732600000000005</v>
       </c>
       <c r="BG6" s="1">
-        <v>-5.399597</v>
+        <v>-3.9626006999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>-5.6328185000000003E-2</v>
+        <v>-4.1392386000000003E-2</v>
       </c>
       <c r="BI6" s="1">
-        <v>94.118750000000006</v>
+        <v>94.089449999999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>-3.6587524</v>
+        <v>-2.3194504</v>
       </c>
       <c r="BK6" s="1">
-        <v>-3.8873787999999999E-2</v>
+        <v>-2.4651546E-2</v>
       </c>
       <c r="BL6" s="1" t="str">
         <v>78.1 - 102.21</v>
@@ -2175,19 +2180,19 @@
         <v>78.099999999999994</v>
       </c>
       <c r="BN6" s="1">
-        <v>12.360001</v>
+        <v>13.669998</v>
       </c>
       <c r="BO6" s="1">
-        <v>0.15825865</v>
+        <v>0.17503199</v>
       </c>
       <c r="BP6" s="1">
         <v>102.21</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-11.75</v>
+        <v>-10.440002</v>
       </c>
       <c r="BR6" s="1">
-        <v>-0.1149594</v>
+        <v>-0.10214267</v>
       </c>
       <c r="BS6" s="1" t="str">
         <v>--</v>
@@ -2202,25 +2207,25 @@
         <v>--</v>
       </c>
       <c r="BW6" s="1">
-        <v>1675950880</v>
+        <v>1676038113</v>
       </c>
       <c r="BX6" s="1">
-        <v>92.41</v>
+        <v>90.37</v>
       </c>
       <c r="BY6" s="1">
-        <v>0.64000699999999999</v>
+        <v>0.18</v>
       </c>
       <c r="BZ6" s="1">
-        <v>6.9740330000000001E-3</v>
+        <v>1.9957899999999999E-3</v>
       </c>
       <c r="CA6" s="1" t="str">
         <v>false</v>
       </c>
       <c r="CB6" s="1">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="CC6" s="1">
-        <v>0.59613425926666663</v>
+        <v>0.53184027776666665</v>
       </c>
       <c r="CD6" s="1">
         <v>44971</v>
@@ -2238,19 +2243,19 @@
         <v>--</v>
       </c>
       <c r="CI6" s="1">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="CJ6" s="1">
-        <v>0.37129629626666671</v>
+        <v>0.38093749996666665</v>
       </c>
       <c r="CK6" s="1">
-        <v>44966.596134259271</v>
+        <v>44967.531840277763</v>
       </c>
       <c r="CL6" s="1" t="str">
         <v>--</v>
       </c>
       <c r="CM6" s="1">
-        <v>44966.371296296267</v>
+        <v>44967.380937499969</v>
       </c>
       <c r="CN6" s="1">
         <v>44973</v>
@@ -2330,52 +2335,52 @@
         <v>Nasdaq Real Time Price</v>
       </c>
       <c r="Q7" s="10">
-        <v>260.83</v>
+        <v>261.39</v>
       </c>
       <c r="R7" s="1">
-        <v>1675970347</v>
+        <v>1676051150</v>
       </c>
       <c r="S7" s="13">
-        <v>-1.9900207999999999</v>
+        <v>0.73001099999999997</v>
       </c>
       <c r="T7" s="1">
-        <v>263.69</v>
+        <v>260.87</v>
       </c>
       <c r="U7" s="1">
-        <v>263.94499999999999</v>
+        <v>262.26249999999999</v>
       </c>
       <c r="V7" s="1">
-        <v>260.67500000000001</v>
+        <v>260.33499999999998</v>
       </c>
       <c r="W7" s="1">
-        <v>1693614</v>
+        <v>1371110</v>
       </c>
       <c r="X7" s="1">
-        <v>260.81</v>
+        <v>261.61</v>
       </c>
       <c r="Y7" s="1">
-        <v>260.91000000000003</v>
+        <v>261.62</v>
       </c>
       <c r="Z7" s="1">
         <v>732424000</v>
       </c>
       <c r="AA7" s="1">
-        <v>191038144512</v>
+        <v>191448317952</v>
       </c>
       <c r="AB7" s="1">
-        <v>2855931</v>
+        <v>2839919</v>
       </c>
       <c r="AC7" s="1">
-        <v>294.27</v>
+        <v>294.33</v>
       </c>
       <c r="AD7" s="1">
         <v>23182600200</v>
       </c>
       <c r="AE7" s="1">
-        <v>8.2405830000000009</v>
+        <v>8.2582760000000004</v>
       </c>
       <c r="AF7" s="1">
-        <v>31.312124000000001</v>
+        <v>31.379353999999999</v>
       </c>
       <c r="AG7" s="1">
         <v>8.33</v>
@@ -2387,7 +2392,7 @@
         <v>5.52</v>
       </c>
       <c r="AJ7" s="1">
-        <v>2.3099999999999999E-2</v>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="AK7" s="1">
         <v>1678838400</v>
@@ -2396,7 +2401,7 @@
         <v>6.08</v>
       </c>
       <c r="AM7" s="1">
-        <v>2.153565E-2</v>
+        <v>2.1714109999999998E-2</v>
       </c>
       <c r="AN7" s="1">
         <v>5.66</v>
@@ -2405,7 +2410,7 @@
         <v>1675171800</v>
       </c>
       <c r="AP7" s="1">
-        <v>-31.976216999999998</v>
+        <v>-32.044871999999998</v>
       </c>
       <c r="AQ7" s="1">
         <v>-8.157</v>
@@ -2414,16 +2419,16 @@
         <v>11.68</v>
       </c>
       <c r="AS7" s="1">
-        <v>3.4</v>
+        <v>3.38</v>
       </c>
       <c r="AT7" s="1">
-        <v>22.331333000000001</v>
+        <v>22.379282</v>
       </c>
       <c r="AU7" s="1">
         <v>12215199744</v>
       </c>
       <c r="AV7" s="1">
-        <v>2.58</v>
+        <v>1.95</v>
       </c>
       <c r="AW7" s="1" t="str">
         <v>--</v>
@@ -2432,43 +2437,43 @@
         <v>USD</v>
       </c>
       <c r="AY7" s="1">
+        <v>8</v>
+      </c>
+      <c r="AZ7" s="1">
         <v>11</v>
       </c>
-      <c r="AZ7" s="1">
-        <v>8</v>
-      </c>
       <c r="BA7" s="1">
-        <v>262.82</v>
+        <v>260.66000000000003</v>
       </c>
       <c r="BB7" s="1">
-        <v>-7.5718010000000004E-3</v>
+        <v>2.8006252999999998E-3</v>
       </c>
       <c r="BC7" s="1" t="str">
-        <v>260.675 - 263.945</v>
+        <v>260.335 - 262.2625</v>
       </c>
       <c r="BD7" s="1">
-        <v>3124420</v>
+        <v>3255590</v>
       </c>
       <c r="BE7" s="1">
         <v>0</v>
       </c>
       <c r="BF7" s="1">
-        <v>268.892</v>
+        <v>268.64760000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-8.0620119999999993</v>
+        <v>-7.2575989999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>-2.9982340999999999E-2</v>
+        <v>-2.7015312E-2</v>
       </c>
       <c r="BI7" s="1">
-        <v>257.19495000000001</v>
+        <v>257.23385999999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>3.6350403</v>
+        <v>4.1561583999999998</v>
       </c>
       <c r="BK7" s="1">
-        <v>1.4133405E-2</v>
+        <v>1.6157120000000001E-2</v>
       </c>
       <c r="BL7" s="1" t="str">
         <v>217.68 - 281.67</v>
@@ -2477,19 +2482,19 @@
         <v>217.68</v>
       </c>
       <c r="BN7" s="1">
-        <v>43.149994</v>
+        <v>43.710022000000002</v>
       </c>
       <c r="BO7" s="1">
-        <v>0.19822672999999999</v>
+        <v>0.20079944999999999</v>
       </c>
       <c r="BP7" s="1">
         <v>281.67</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-20.840026999999999</v>
+        <v>-20.279999</v>
       </c>
       <c r="BR7" s="1">
-        <v>-7.3987380000000005E-2</v>
+        <v>-7.1999140000000003E-2</v>
       </c>
       <c r="BS7" s="1" t="str">
         <v>--</v>
@@ -2504,25 +2509,25 @@
         <v>--</v>
       </c>
       <c r="BW7" s="1">
-        <v>1675952830</v>
+        <v>1676038900</v>
       </c>
       <c r="BX7" s="1">
-        <v>263</v>
+        <v>260.95</v>
       </c>
       <c r="BY7" s="1">
-        <v>0.17999299999999999</v>
+        <v>0.29000900000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>6.8485099999999999E-4</v>
+        <v>1.1125900000000001E-3</v>
       </c>
       <c r="CA7" s="1" t="str">
         <v>false</v>
       </c>
       <c r="CB7" s="1">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="CC7" s="1">
-        <v>0.59660879626666674</v>
+        <v>0.53182870366666668</v>
       </c>
       <c r="CD7" s="1">
         <v>44985</v>
@@ -2540,19 +2545,19 @@
         <v>--</v>
       </c>
       <c r="CI7" s="1">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="CJ7" s="1">
-        <v>0.39386574076666664</v>
+        <v>0.39004629626666665</v>
       </c>
       <c r="CK7" s="1">
-        <v>44966.596608796266</v>
+        <v>44967.531828703664</v>
       </c>
       <c r="CL7" s="1" t="str">
         <v>--</v>
       </c>
       <c r="CM7" s="1">
-        <v>44966.393865740771</v>
+        <v>44967.39004629627</v>
       </c>
       <c r="CN7" s="1">
         <v>45042</v>
@@ -2632,40 +2637,40 @@
         <v>Nasdaq Real Time Price</v>
       </c>
       <c r="Q8" s="10">
-        <v>47.26</v>
+        <v>48.23</v>
       </c>
       <c r="R8" s="1">
-        <v>1675970277</v>
+        <v>1676051029</v>
       </c>
       <c r="S8" s="13">
-        <v>-1.6400032</v>
+        <v>0.95000076</v>
       </c>
       <c r="T8" s="1">
-        <v>49.03</v>
+        <v>47.41</v>
       </c>
       <c r="U8" s="1">
-        <v>49.25</v>
+        <v>48.395000000000003</v>
       </c>
       <c r="V8" s="1">
-        <v>47.200099999999999</v>
+        <v>47.43</v>
       </c>
       <c r="W8" s="1">
-        <v>86804</v>
+        <v>61686</v>
       </c>
       <c r="X8" s="1">
-        <v>47.21</v>
+        <v>48.09</v>
       </c>
       <c r="Y8" s="1">
-        <v>47.24</v>
+        <v>48.15</v>
       </c>
       <c r="Z8" s="1">
         <v>35099200</v>
       </c>
       <c r="AA8" s="1">
-        <v>1658788096</v>
+        <v>1692834432</v>
       </c>
       <c r="AB8" s="1">
-        <v>202709</v>
+        <v>201532</v>
       </c>
       <c r="AC8" s="1">
         <v>54.43</v>
@@ -2674,10 +2679,10 @@
         <v>956190020</v>
       </c>
       <c r="AE8" s="1">
-        <v>1.7347891</v>
+        <v>1.7703954</v>
       </c>
       <c r="AF8" s="1">
-        <v>19.211382</v>
+        <v>19.605689999999999</v>
       </c>
       <c r="AG8" s="1">
         <v>2.46</v>
@@ -2689,7 +2694,7 @@
         <v>1.93</v>
       </c>
       <c r="AJ8" s="1">
-        <v>3.78E-2</v>
+        <v>3.9699999999999999E-2</v>
       </c>
       <c r="AK8" s="1">
         <v>1676419200</v>
@@ -2698,7 +2703,7 @@
         <v>1.94</v>
       </c>
       <c r="AM8" s="1">
-        <v>3.9468299999999998E-2</v>
+        <v>4.0820642999999997E-2</v>
       </c>
       <c r="AN8" s="1">
         <v>1.93</v>
@@ -2707,7 +2712,7 @@
         <v>1677245400</v>
       </c>
       <c r="AP8" s="1">
-        <v>1.4798808999999999</v>
+        <v>1.5102552</v>
       </c>
       <c r="AQ8" s="1">
         <v>31.934999999999999</v>
@@ -2716,10 +2721,10 @@
         <v>2.72</v>
       </c>
       <c r="AS8" s="1">
-        <v>4.7699999999999996</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="AT8" s="1">
-        <v>17.375</v>
+        <v>17.731617</v>
       </c>
       <c r="AU8" s="1">
         <v>282471008</v>
@@ -2740,37 +2745,37 @@
         <v>10</v>
       </c>
       <c r="BA8" s="1">
-        <v>48.9</v>
+        <v>47.28</v>
       </c>
       <c r="BB8" s="1">
-        <v>-3.3537897999999997E-2</v>
+        <v>2.0093079E-2</v>
       </c>
       <c r="BC8" s="1" t="str">
-        <v>47.2001 - 49.25</v>
+        <v>47.43 - 48.395</v>
       </c>
       <c r="BD8" s="1">
-        <v>272220</v>
+        <v>275710</v>
       </c>
       <c r="BE8" s="1">
         <v>0</v>
       </c>
       <c r="BF8" s="1">
-        <v>48.705199999999998</v>
+        <v>48.664400000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-1.4452019</v>
+        <v>-0.43439865</v>
       </c>
       <c r="BH8" s="1">
-        <v>-2.9672435E-2</v>
+        <v>-8.9264159999999995E-3</v>
       </c>
       <c r="BI8" s="1">
-        <v>49.608400000000003</v>
+        <v>49.595399999999998</v>
       </c>
       <c r="BJ8" s="1">
-        <v>-2.3483999999999998</v>
+        <v>-1.3654021999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>-4.7338760000000001E-2</v>
+        <v>-2.7530822999999999E-2</v>
       </c>
       <c r="BL8" s="1" t="str">
         <v>42.37 - 57.63</v>
@@ -2779,19 +2784,19 @@
         <v>42.37</v>
       </c>
       <c r="BN8" s="1">
-        <v>4.8899993999999998</v>
+        <v>5.8600006000000002</v>
       </c>
       <c r="BO8" s="1">
-        <v>0.11541183000000001</v>
+        <v>0.13830543000000001</v>
       </c>
       <c r="BP8" s="1">
         <v>57.63</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-10.370003000000001</v>
+        <v>-9.4000020000000006</v>
       </c>
       <c r="BR8" s="1">
-        <v>-0.17994104</v>
+        <v>-0.16310951000000001</v>
       </c>
       <c r="BS8" s="1" t="str">
         <v>--</v>
@@ -2806,25 +2811,25 @@
         <v>--</v>
       </c>
       <c r="BW8" s="1">
-        <v>1675952913</v>
+        <v>1676033066</v>
       </c>
       <c r="BX8" s="1">
-        <v>49</v>
+        <v>47.3</v>
       </c>
       <c r="BY8" s="1">
-        <v>9.9998500000000004E-2</v>
+        <v>2.0000457999999999E-2</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2.0449600000000002E-3</v>
+        <v>4.2302154E-4</v>
       </c>
       <c r="CA8" s="1" t="str">
         <v>false</v>
       </c>
       <c r="CB8" s="1">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="CC8" s="1">
-        <v>0.59579861106666665</v>
+        <v>0.53042824076666673</v>
       </c>
       <c r="CD8" s="1">
         <v>44956</v>
@@ -2842,19 +2847,19 @@
         <v>--</v>
       </c>
       <c r="CI8" s="1">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="CJ8" s="1">
-        <v>0.39482638886666671</v>
+        <v>0.32252314816666666</v>
       </c>
       <c r="CK8" s="1">
-        <v>44966.595798611066</v>
+        <v>44967.530428240767</v>
       </c>
       <c r="CL8" s="1" t="str">
         <v>--</v>
       </c>
       <c r="CM8" s="1">
-        <v>44966.394826388867</v>
+        <v>44967.32252314817</v>
       </c>
       <c r="CN8" s="1">
         <v>44981</v>
@@ -3234,32 +3239,32 @@
         <v>Nasdaq Real Time Price</v>
       </c>
       <c r="Q10" s="10">
-        <v>44.48</v>
+        <v>44.53</v>
       </c>
       <c r="R10" s="1">
-        <v>1675970344</v>
+        <v>1676051150</v>
       </c>
       <c r="S10" s="13">
-        <v>-0.42000198</v>
+        <v>0.16999817</v>
       </c>
       <c r="T10" s="1">
-        <v>45.18</v>
+        <v>44.37</v>
       </c>
       <c r="U10" s="1">
-        <v>45.2</v>
+        <v>44.59</v>
       </c>
       <c r="V10" s="1">
-        <v>44.46</v>
+        <v>44.26</v>
       </c>
       <c r="W10" s="1">
-        <v>511695</v>
+        <v>324268</v>
       </c>
       <c r="X10" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="Y10" s="1">
         <v>44.51</v>
       </c>
-      <c r="Y10" s="1">
-        <v>44.52</v>
-      </c>
       <c r="Z10" s="1" t="str">
         <v>--</v>
       </c>
@@ -3267,7 +3272,7 @@
         <v>--</v>
       </c>
       <c r="AB10" s="1">
-        <v>760408</v>
+        <v>756773</v>
       </c>
       <c r="AC10" s="1" t="str">
         <v>--</v>
@@ -3336,43 +3341,43 @@
         <v>USD</v>
       </c>
       <c r="AY10" s="1">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AZ10" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA10" s="1">
-        <v>44.9</v>
+        <v>44.36</v>
       </c>
       <c r="BB10" s="1">
-        <v>-9.3541639999999999E-3</v>
+        <v>3.8322398000000001E-3</v>
       </c>
       <c r="BC10" s="1" t="str">
-        <v>44.46 - 45.2</v>
+        <v>44.26 - 44.59</v>
       </c>
       <c r="BD10" s="1">
-        <v>772810</v>
+        <v>804550</v>
       </c>
       <c r="BE10" s="1">
         <v>0</v>
       </c>
       <c r="BF10" s="1">
-        <v>44.725999999999999</v>
+        <v>44.724200000000003</v>
       </c>
       <c r="BG10" s="1">
-        <v>-0.2460022</v>
+        <v>-0.19420241999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>-5.5002052999999999E-3</v>
+        <v>-4.3422219999999997E-3</v>
       </c>
       <c r="BI10" s="1">
-        <v>44.321249999999999</v>
+        <v>44.303649999999998</v>
       </c>
       <c r="BJ10" s="1">
-        <v>0.15874863</v>
+        <v>0.22634888</v>
       </c>
       <c r="BK10" s="1">
-        <v>3.5817723000000001E-3</v>
+        <v>5.1090344999999999E-3</v>
       </c>
       <c r="BL10" s="1" t="str">
         <v>38.33 - 49.61</v>
@@ -3381,19 +3386,19 @@
         <v>38.33</v>
       </c>
       <c r="BN10" s="1">
-        <v>6.1499977000000001</v>
+        <v>6.1999969999999998</v>
       </c>
       <c r="BO10" s="1">
-        <v>0.16044866999999999</v>
+        <v>0.16175310000000001</v>
       </c>
       <c r="BP10" s="1">
         <v>49.61</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-5.130001</v>
+        <v>-5.0800020000000004</v>
       </c>
       <c r="BR10" s="1">
-        <v>-0.10340659000000001</v>
+        <v>-0.102398746</v>
       </c>
       <c r="BS10" s="1" t="str">
         <v>--</v>
@@ -3408,25 +3413,25 @@
         <v>--</v>
       </c>
       <c r="BW10" s="1">
-        <v>1675952971</v>
+        <v>1676039371</v>
       </c>
       <c r="BX10" s="1">
-        <v>45.25</v>
+        <v>44.47</v>
       </c>
       <c r="BY10" s="1">
-        <v>0.34999799999999998</v>
+        <v>0.110001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>7.7950700000000003E-3</v>
+        <v>2.4797299999999999E-3</v>
       </c>
       <c r="CA10" s="1" t="str">
         <v>false</v>
       </c>
       <c r="CB10" s="1">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="CC10" s="1">
-        <v>0.59657407406666674</v>
+        <v>0.53182870366666668</v>
       </c>
       <c r="CD10" s="1" t="str">
         <v>--</v>
@@ -3444,19 +3449,19 @@
         <v>--</v>
       </c>
       <c r="CI10" s="1">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="CJ10" s="1">
         <v>0.39549768516666667</v>
       </c>
       <c r="CK10" s="1">
-        <v>44966.596574074072</v>
+        <v>44967.531828703664</v>
       </c>
       <c r="CL10" s="1" t="str">
         <v>--</v>
       </c>
       <c r="CM10" s="1">
-        <v>44966.395497685167</v>
+        <v>44967.395497685167</v>
       </c>
       <c r="CN10" s="1" t="str">
         <v>--</v>
@@ -3836,40 +3841,40 @@
         <v>Nasdaq Real Time Price</v>
       </c>
       <c r="Q12" s="10">
-        <v>114.855</v>
+        <v>118.28</v>
       </c>
       <c r="R12" s="1">
-        <v>1675970352</v>
+        <v>1676051157</v>
       </c>
       <c r="S12" s="13">
-        <v>0.93500519999999998</v>
+        <v>3.9300003000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>114.62</v>
+        <v>116.51</v>
       </c>
       <c r="U12" s="1">
-        <v>116.24</v>
+        <v>118.49</v>
       </c>
       <c r="V12" s="1">
-        <v>114.1803</v>
+        <v>116.16</v>
       </c>
       <c r="W12" s="1">
-        <v>11067927</v>
+        <v>12634629</v>
       </c>
       <c r="X12" s="1">
-        <v>115.23</v>
+        <v>118.27</v>
       </c>
       <c r="Y12" s="1">
-        <v>115.22</v>
+        <v>118.29</v>
       </c>
       <c r="Z12" s="1">
         <v>4081999872</v>
       </c>
       <c r="AA12" s="1">
-        <v>468838121472</v>
+        <v>482818949120</v>
       </c>
       <c r="AB12" s="1">
-        <v>17363785</v>
+        <v>17319568</v>
       </c>
       <c r="AC12" s="1">
         <v>125.85</v>
@@ -3878,10 +3883,10 @@
         <v>402217009000</v>
       </c>
       <c r="AE12" s="1">
-        <v>1.1656348000000001</v>
+        <v>1.2003942000000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>8.6617650000000008</v>
+        <v>8.9200599999999994</v>
       </c>
       <c r="AG12" s="1">
         <v>13.26</v>
@@ -3902,7 +3907,7 @@
         <v>3.64</v>
       </c>
       <c r="AM12" s="1">
-        <v>3.1162220000000001E-2</v>
+        <v>3.1045036000000002E-2</v>
       </c>
       <c r="AN12" s="1">
         <v>3.55</v>
@@ -3911,7 +3916,7 @@
         <v>1675171800</v>
       </c>
       <c r="AP12" s="1">
-        <v>2.4036791000000002</v>
+        <v>2.4753573000000002</v>
       </c>
       <c r="AQ12" s="1">
         <v>47.783000000000001</v>
@@ -3923,7 +3928,7 @@
         <v>0.38</v>
       </c>
       <c r="AT12" s="1">
-        <v>10.72409</v>
+        <v>11.043884</v>
       </c>
       <c r="AU12" s="1">
         <v>91127996416</v>
@@ -3938,64 +3943,64 @@
         <v>USD</v>
       </c>
       <c r="AY12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ12" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA12" s="1">
-        <v>113.92</v>
+        <v>114.35</v>
       </c>
       <c r="BB12" s="1">
-        <v>8.2075596000000008E-3</v>
+        <v>3.4368172000000002E-2</v>
       </c>
       <c r="BC12" s="1" t="str">
-        <v>114.1803 - 116.24</v>
+        <v>116.16 - 118.49</v>
       </c>
       <c r="BD12" s="1">
-        <v>19528950</v>
+        <v>19171930</v>
       </c>
       <c r="BE12" s="1">
         <v>0</v>
       </c>
       <c r="BF12" s="1">
-        <v>109.91719999999999</v>
+        <v>110.008</v>
       </c>
       <c r="BG12" s="1">
-        <v>4.937805</v>
+        <v>8.2719959999999997</v>
       </c>
       <c r="BH12" s="1">
-        <v>4.4922950000000003E-2</v>
+        <v>7.5194485000000005E-2</v>
       </c>
       <c r="BI12" s="1">
-        <v>99.094449999999995</v>
+        <v>99.254900000000006</v>
       </c>
       <c r="BJ12" s="1">
-        <v>15.760551</v>
+        <v>19.025099999999998</v>
       </c>
       <c r="BK12" s="1">
-        <v>0.15904576000000001</v>
+        <v>0.19167920999999999</v>
       </c>
       <c r="BL12" s="1" t="str">
-        <v>74.03 - 117.78</v>
+        <v>74.03 - 118.49</v>
       </c>
       <c r="BM12" s="1">
         <v>74.03</v>
       </c>
       <c r="BN12" s="1">
-        <v>40.825004999999997</v>
+        <v>44.25</v>
       </c>
       <c r="BO12" s="1">
-        <v>0.55146569999999995</v>
+        <v>0.59773063999999998</v>
       </c>
       <c r="BP12" s="1">
-        <v>117.78</v>
+        <v>118.49</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-2.9249953999999998</v>
+        <v>-0.20999908</v>
       </c>
       <c r="BR12" s="1">
-        <v>-2.4834398000000001E-2</v>
+        <v>-1.7722937999999999E-3</v>
       </c>
       <c r="BS12" s="1" t="str">
         <v>--</v>
@@ -4010,25 +4015,25 @@
         <v>--</v>
       </c>
       <c r="BW12" s="1">
-        <v>1675952997</v>
+        <v>1676039391</v>
       </c>
       <c r="BX12" s="1">
-        <v>114.5</v>
+        <v>116.5</v>
       </c>
       <c r="BY12" s="1">
-        <v>0.58000200000000002</v>
+        <v>2.15</v>
       </c>
       <c r="BZ12" s="1">
-        <v>5.0913099999999999E-3</v>
+        <v>1.88019E-2</v>
       </c>
       <c r="CA12" s="1" t="str">
         <v>false</v>
       </c>
       <c r="CB12" s="1">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="CC12" s="1">
-        <v>0.59666666666666668</v>
+        <v>0.53190972226666666</v>
       </c>
       <c r="CD12" s="1">
         <v>44970</v>
@@ -4046,19 +4051,19 @@
         <v>--</v>
       </c>
       <c r="CI12" s="1">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="CJ12" s="1">
-        <v>0.39579861106666669</v>
+        <v>0.39572916666666669</v>
       </c>
       <c r="CK12" s="1">
-        <v>44966.596666666672</v>
+        <v>44967.531909722267</v>
       </c>
       <c r="CL12" s="1" t="str">
         <v>--</v>
       </c>
       <c r="CM12" s="1">
-        <v>44966.395798611069</v>
+        <v>44967.395729166674</v>
       </c>
       <c r="CN12" s="1">
         <v>45043</v>
@@ -4138,31 +4143,31 @@
         <v>Delayed Quote</v>
       </c>
       <c r="Q13" s="10">
-        <v>15.62</v>
+        <v>17.41</v>
       </c>
       <c r="R13" s="1">
-        <v>1675968899</v>
+        <v>1676045914</v>
       </c>
       <c r="S13" s="13">
-        <v>-5.000019E-2</v>
+        <v>1.79</v>
       </c>
       <c r="T13" s="1">
-        <v>15.2</v>
+        <v>16.8</v>
       </c>
       <c r="U13" s="1">
-        <v>15.62</v>
+        <v>17.5</v>
       </c>
       <c r="V13" s="1">
-        <v>15.2</v>
+        <v>16.77</v>
       </c>
       <c r="W13" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="X13" s="1">
-        <v>15.45</v>
+        <v>17.25</v>
       </c>
       <c r="Y13" s="1">
-        <v>15.9</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="Z13" s="1" t="str">
         <v>--</v>
@@ -4246,13 +4251,13 @@
         <v>--</v>
       </c>
       <c r="BA13" s="1">
-        <v>15.67</v>
+        <v>15.62</v>
       </c>
       <c r="BB13" s="1">
-        <v>-3.1908226E-3</v>
+        <v>0.11459667</v>
       </c>
       <c r="BC13" s="1" t="str">
-        <v>15.2 - 15.62</v>
+        <v>16.77 - 17.5</v>
       </c>
       <c r="BD13" s="1" t="str">
         <v>--</v>
@@ -4279,25 +4284,25 @@
         <v>--</v>
       </c>
       <c r="BL13" s="1" t="str">
-        <v>15.2 - 15.62</v>
+        <v>16.77 - 17.5</v>
       </c>
       <c r="BM13" s="1">
-        <v>15.2</v>
+        <v>16.77</v>
       </c>
       <c r="BN13" s="1">
-        <v>0.42000008</v>
+        <v>0.6399994</v>
       </c>
       <c r="BO13" s="1">
-        <v>2.7631585E-2</v>
+        <v>3.8163349999999999E-2</v>
       </c>
       <c r="BP13" s="1">
-        <v>15.62</v>
+        <v>17.5</v>
       </c>
       <c r="BQ13" s="1">
-        <v>0</v>
+        <v>-9.0000150000000001E-2</v>
       </c>
       <c r="BR13" s="1">
-        <v>0</v>
+        <v>-5.1428656999999997E-3</v>
       </c>
       <c r="BS13" s="1" t="str">
         <v>--</v>
@@ -4327,10 +4332,10 @@
         <v>false</v>
       </c>
       <c r="CB13" s="1">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="CC13" s="1">
-        <v>0.57984953706666664</v>
+        <v>0.47122685186666663</v>
       </c>
       <c r="CD13" s="1" t="str">
         <v>--</v>
@@ -4354,7 +4359,7 @@
         <v>--</v>
       </c>
       <c r="CK13" s="1">
-        <v>44966.579849537069</v>
+        <v>44967.471226851863</v>
       </c>
       <c r="CL13" s="1" t="str">
         <v>--</v>
@@ -4740,40 +4745,40 @@
         <v>Nasdaq Real Time Price</v>
       </c>
       <c r="Q15" s="10">
-        <v>408.46499999999997</v>
+        <v>406.16</v>
       </c>
       <c r="R15" s="1">
-        <v>1675970352</v>
+        <v>1676051159</v>
       </c>
       <c r="S15" s="13">
-        <v>-2.1849976</v>
+        <v>-0.92999270000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>414.41</v>
+        <v>405.86</v>
       </c>
       <c r="U15" s="1">
-        <v>414.56</v>
+        <v>408.1</v>
       </c>
       <c r="V15" s="1">
-        <v>408.45</v>
+        <v>405.02</v>
       </c>
       <c r="W15" s="1">
-        <v>43409692</v>
+        <v>33818155</v>
       </c>
       <c r="X15" s="1">
-        <v>409.18</v>
+        <v>405.78</v>
       </c>
       <c r="Y15" s="1">
-        <v>409.2</v>
+        <v>405.8</v>
       </c>
       <c r="Z15" s="1">
         <v>917782016</v>
       </c>
       <c r="AA15" s="1">
-        <v>374881812480</v>
+        <v>372766343168</v>
       </c>
       <c r="AB15" s="1">
-        <v>81106293</v>
+        <v>80076657</v>
       </c>
       <c r="AC15" s="1" t="str">
         <v>--</v>
@@ -4785,7 +4790,7 @@
         <v>--</v>
       </c>
       <c r="AF15" s="1">
-        <v>22.163049999999998</v>
+        <v>22.037980999999998</v>
       </c>
       <c r="AG15" s="1">
         <v>18.43</v>
@@ -4806,7 +4811,7 @@
         <v>--</v>
       </c>
       <c r="AM15" s="1">
-        <v>1.3787898E-2</v>
+        <v>1.3908472999999999E-2</v>
       </c>
       <c r="AN15" s="1">
         <v>5.6619999999999999</v>
@@ -4815,7 +4820,7 @@
         <v>--</v>
       </c>
       <c r="AP15" s="1">
-        <v>0.95164484000000005</v>
+        <v>0.94627463999999994</v>
       </c>
       <c r="AQ15" s="1">
         <v>429.22</v>
@@ -4842,43 +4847,43 @@
         <v>USD</v>
       </c>
       <c r="AY15" s="1">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="AZ15" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BA15" s="1">
-        <v>410.65</v>
+        <v>407.09</v>
       </c>
       <c r="BB15" s="1">
-        <v>-5.3208270000000002E-3</v>
+        <v>-2.2844890999999998E-3</v>
       </c>
       <c r="BC15" s="1" t="str">
-        <v>408.45 - 414.56</v>
+        <v>405.02 - 408.1</v>
       </c>
       <c r="BD15" s="1">
-        <v>82664650</v>
+        <v>83300710</v>
       </c>
       <c r="BE15" s="1">
         <v>0</v>
       </c>
       <c r="BF15" s="1">
-        <v>395.32600000000002</v>
+        <v>395.5496</v>
       </c>
       <c r="BG15" s="1">
-        <v>13.139008</v>
+        <v>10.610412999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>3.3235880000000002E-2</v>
+        <v>2.6824482E-2</v>
       </c>
       <c r="BI15" s="1">
-        <v>393.72109999999998</v>
+        <v>393.61399999999998</v>
       </c>
       <c r="BJ15" s="1">
-        <v>14.7438965</v>
+        <v>12.54599</v>
       </c>
       <c r="BK15" s="1">
-        <v>3.7447564000000003E-2</v>
+        <v>3.1873840000000001E-2</v>
       </c>
       <c r="BL15" s="1" t="str">
         <v>348.11 - 462.07</v>
@@ -4887,19 +4892,19 @@
         <v>348.11</v>
       </c>
       <c r="BN15" s="1">
-        <v>60.35501</v>
+        <v>58.050020000000004</v>
       </c>
       <c r="BO15" s="1">
-        <v>0.17337913999999999</v>
+        <v>0.16675768999999999</v>
       </c>
       <c r="BP15" s="1">
         <v>462.07</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-53.60501</v>
+        <v>-55.910004000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>-0.116010584</v>
+        <v>-0.120998986</v>
       </c>
       <c r="BS15" s="1" t="str">
         <v>--</v>
@@ -4914,25 +4919,25 @@
         <v>--</v>
       </c>
       <c r="BW15" s="1">
-        <v>1675952999</v>
+        <v>1676039399</v>
       </c>
       <c r="BX15" s="1">
-        <v>414.32</v>
+        <v>405.86</v>
       </c>
       <c r="BY15" s="1">
-        <v>3.67001</v>
+        <v>-1.23001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>8.93708E-3</v>
+        <v>-3.0214700000000001E-3</v>
       </c>
       <c r="CA15" s="1" t="str">
         <v>false</v>
       </c>
       <c r="CB15" s="1">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="CC15" s="1">
-        <v>0.59666666666666668</v>
+        <v>0.5319328703666667</v>
       </c>
       <c r="CD15" s="1" t="str">
         <v>--</v>
@@ -4950,19 +4955,19 @@
         <v>--</v>
       </c>
       <c r="CI15" s="1">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="CJ15" s="1">
         <v>0.39582175926666663</v>
       </c>
       <c r="CK15" s="1">
-        <v>44966.596666666672</v>
+        <v>44967.531932870363</v>
       </c>
       <c r="CL15" s="1" t="str">
         <v>--</v>
       </c>
       <c r="CM15" s="1">
-        <v>44966.395821759266</v>
+        <v>44967.395821759266</v>
       </c>
       <c r="CN15" s="1" t="str">
         <v>--</v>
@@ -5042,40 +5047,40 @@
         <v>Nasdaq Real Time Price</v>
       </c>
       <c r="Q16" s="10">
-        <v>190.55</v>
+        <v>189.54</v>
       </c>
       <c r="R16" s="1">
-        <v>1675970352</v>
+        <v>1676051155</v>
       </c>
       <c r="S16" s="13">
-        <v>-2.1699982000000002</v>
+        <v>-0.3899994</v>
       </c>
       <c r="T16" s="1">
-        <v>194.23</v>
+        <v>189.28</v>
       </c>
       <c r="U16" s="1">
-        <v>195.12</v>
+        <v>190.31</v>
       </c>
       <c r="V16" s="1">
-        <v>190.55</v>
+        <v>188.53280000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>13112504</v>
+        <v>8439185</v>
       </c>
       <c r="X16" s="1">
-        <v>190.9</v>
+        <v>189.3</v>
       </c>
       <c r="Y16" s="1">
-        <v>190.92</v>
+        <v>189.31</v>
       </c>
       <c r="Z16" s="1">
         <v>281049984</v>
       </c>
       <c r="AA16" s="1">
-        <v>53554073600</v>
+        <v>53270212608</v>
       </c>
       <c r="AB16" s="1">
-        <v>22828106</v>
+        <v>22531088</v>
       </c>
       <c r="AC16" s="1" t="str">
         <v>--</v>
@@ -5087,7 +5092,7 @@
         <v>--</v>
       </c>
       <c r="AF16" s="1">
-        <v>2.921605</v>
+        <v>2.9061189999999999</v>
       </c>
       <c r="AG16" s="1">
         <v>65.221000000000004</v>
@@ -5108,7 +5113,7 @@
         <v>--</v>
       </c>
       <c r="AM16" s="1">
-        <v>1.0465960999999999E-2</v>
+        <v>1.0619702E-2</v>
       </c>
       <c r="AN16" s="1">
         <v>2.0169999999999999</v>
@@ -5117,7 +5122,7 @@
         <v>--</v>
       </c>
       <c r="AP16" s="1">
-        <v>0.87130879999999999</v>
+        <v>0.86669039999999997</v>
       </c>
       <c r="AQ16" s="1">
         <v>218.69399999999999</v>
@@ -5147,40 +5152,40 @@
         <v>9</v>
       </c>
       <c r="AZ16" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BA16" s="1">
-        <v>192.72</v>
+        <v>189.93</v>
       </c>
       <c r="BB16" s="1">
-        <v>-1.1259849000000001E-2</v>
+        <v>-2.053385E-3</v>
       </c>
       <c r="BC16" s="1" t="str">
-        <v>190.55 - 195.12</v>
+        <v>188.5328 - 190.31</v>
       </c>
       <c r="BD16" s="1">
-        <v>22442900</v>
+        <v>22651460</v>
       </c>
       <c r="BE16" s="1">
         <v>0</v>
       </c>
       <c r="BF16" s="1">
-        <v>182.50219999999999</v>
+        <v>182.66399999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>8.0478059999999996</v>
+        <v>6.8759920000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>4.4097035999999999E-2</v>
+        <v>3.7642839999999997E-2</v>
       </c>
       <c r="BI16" s="1">
-        <v>180.7388</v>
+        <v>180.7192</v>
       </c>
       <c r="BJ16" s="1">
-        <v>9.8112030000000008</v>
+        <v>8.8208009999999994</v>
       </c>
       <c r="BK16" s="1">
-        <v>5.428388E-2</v>
+        <v>4.8809430000000001E-2</v>
       </c>
       <c r="BL16" s="1" t="str">
         <v>162.5 - 212.25</v>
@@ -5189,19 +5194,19 @@
         <v>162.5</v>
       </c>
       <c r="BN16" s="1">
-        <v>28.050003</v>
+        <v>27.039992999999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>0.17261541</v>
+        <v>0.16639996000000001</v>
       </c>
       <c r="BP16" s="1">
         <v>212.25</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-21.699997</v>
+        <v>-22.710007000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>-0.10223791</v>
+        <v>-0.10699649999999999</v>
       </c>
       <c r="BS16" s="1" t="str">
         <v>--</v>
@@ -5216,25 +5221,25 @@
         <v>--</v>
       </c>
       <c r="BW16" s="1">
-        <v>1675952995</v>
+        <v>1676039395</v>
       </c>
       <c r="BX16" s="1">
-        <v>194.29</v>
+        <v>189.3</v>
       </c>
       <c r="BY16" s="1">
-        <v>1.56999</v>
+        <v>-0.62999000000000005</v>
       </c>
       <c r="BZ16" s="1">
-        <v>8.1464899999999993E-3</v>
+        <v>-3.3169599999999999E-3</v>
       </c>
       <c r="CA16" s="1" t="str">
         <v>false</v>
       </c>
       <c r="CB16" s="1">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="CC16" s="1">
-        <v>0.59666666666666668</v>
+        <v>0.53188657406666673</v>
       </c>
       <c r="CD16" s="1" t="str">
         <v>--</v>
@@ -5252,19 +5257,19 @@
         <v>--</v>
       </c>
       <c r="CI16" s="1">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="CJ16" s="1">
         <v>0.39577546296666671</v>
       </c>
       <c r="CK16" s="1">
-        <v>44966.596666666672</v>
+        <v>44967.531886574063</v>
       </c>
       <c r="CL16" s="1" t="str">
         <v>--</v>
       </c>
       <c r="CM16" s="1">
-        <v>44966.395775462966</v>
+        <v>44967.395775462966</v>
       </c>
       <c r="CN16" s="1" t="str">
         <v>--</v>
@@ -5641,16 +5646,16 @@
         <v>MUTUALFUND</v>
       </c>
       <c r="P18" s="12" t="str">
-        <v>Delayed Quote</v>
+        <v>--</v>
       </c>
       <c r="Q18" s="10">
-        <v>380.26</v>
+        <v>376.95</v>
       </c>
       <c r="R18" s="1">
-        <v>1675947986</v>
+        <v>1676034385</v>
       </c>
       <c r="S18" s="13">
-        <v>-4.25</v>
+        <v>-3.31</v>
       </c>
       <c r="T18" s="1" t="str">
         <v>--</v>
@@ -5689,7 +5694,7 @@
         <v>--</v>
       </c>
       <c r="AF18" s="1">
-        <v>4.4207029999999996</v>
+        <v>4.3822226999999998</v>
       </c>
       <c r="AG18" s="1">
         <v>86.018000000000001</v>
@@ -5710,7 +5715,7 @@
         <v>2.3428999999999998E-2</v>
       </c>
       <c r="AM18" s="1">
-        <v>1.4140073E-2</v>
+        <v>1.4298111000000001E-2</v>
       </c>
       <c r="AN18" s="1">
         <v>5.4370000000000003</v>
@@ -5719,7 +5724,7 @@
         <v>--</v>
       </c>
       <c r="AP18" s="1">
-        <v>0.97289526000000004</v>
+        <v>0.96442664</v>
       </c>
       <c r="AQ18" s="1">
         <v>390.85399999999998</v>
@@ -5752,10 +5757,10 @@
         <v>--</v>
       </c>
       <c r="BA18" s="1">
-        <v>384.51</v>
+        <v>380.26</v>
       </c>
       <c r="BB18" s="1">
-        <v>-1.1053027999999999E-2</v>
+        <v>-8.7045704999999998E-3</v>
       </c>
       <c r="BC18" s="1" t="str">
         <v>--</v>
@@ -5767,22 +5772,22 @@
         <v>0</v>
       </c>
       <c r="BF18" s="1">
-        <v>366.1574</v>
+        <v>366.36239999999998</v>
       </c>
       <c r="BG18" s="1">
-        <v>14.102600000000001</v>
+        <v>10.587616000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>3.8515130000000002E-2</v>
+        <v>2.8899297000000001E-2</v>
       </c>
       <c r="BI18" s="1">
-        <v>364.74164000000002</v>
+        <v>364.64240000000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>15.518371999999999</v>
+        <v>12.307617</v>
       </c>
       <c r="BK18" s="1">
-        <v>4.2546199999999999E-2</v>
+        <v>3.3752567999999997E-2</v>
       </c>
       <c r="BL18" s="1" t="str">
         <v>330.25 - 427.47</v>
@@ -5791,19 +5796,19 @@
         <v>330.25</v>
       </c>
       <c r="BN18" s="1">
-        <v>50.010010000000001</v>
+        <v>46.700012000000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>0.15143076999999999</v>
+        <v>0.14140806</v>
       </c>
       <c r="BP18" s="1">
         <v>427.47</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-47.209989999999998</v>
+        <v>-50.51999</v>
       </c>
       <c r="BR18" s="1">
-        <v>-0.11044047999999999</v>
+        <v>-0.11818371</v>
       </c>
       <c r="BS18" s="1" t="str">
         <v>--</v>
@@ -5833,10 +5838,10 @@
         <v>false</v>
       </c>
       <c r="CB18" s="1">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="CC18" s="1">
-        <v>0.33780092596666667</v>
+        <v>0.3377893518666667</v>
       </c>
       <c r="CD18" s="1" t="str">
         <v>--</v>
@@ -5860,7 +5865,7 @@
         <v>--</v>
       </c>
       <c r="CK18" s="1">
-        <v>44966.337800925969</v>
+        <v>44967.33778935187</v>
       </c>
       <c r="CL18" s="1" t="str">
         <v>--</v>
